--- a/create cards for OZON WB XLS/data to create Термонаклейки/old/Fill_data_output_data_for_Ozon.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/old/Fill_data_output_data_for_Ozon.xlsx
@@ -7154,12 +7154,12 @@
     <row r="4" ht="13.8" customHeight="1" s="23">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Термонаклейка Формы термозаплатка</t>
+          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Формы термозаплатка</t>
+          <t>Термонаклейка для одежды: Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7188,22 +7188,22 @@
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_1.jpg</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_1.jpg</t>
         </is>
       </c>
       <c r="O4" s="40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Формы термозаплатка</t>
+          <t>Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
       <c r="W4" s="30" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Термонаклейка Формы термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+          <t xml:space="preserve">Термонаклейка Кот Сфинкс Звезды Молния - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
 </t>
         </is>
       </c>
@@ -7249,339 +7249,48 @@
       <c r="AF4" s="22" t="n"/>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_a_color.jpg</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/cat_stars_david_bow_vert_1_color.jpg</t>
         </is>
       </c>
       <c r="AH4" s="22" t="n"/>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Формы термозаплатка</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="23">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Термонаклейка Сердечки термозаплатка</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Термонаклейка для одежды: Сердечки термозаплатка</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>349</v>
-      </c>
-      <c r="E5" t="n">
-        <v>524</v>
-      </c>
-      <c r="F5" s="30" t="inlineStr">
-        <is>
-          <t>Не облагается</t>
-        </is>
-      </c>
-      <c r="G5" s="22" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v/>
-      </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" t="n">
-        <v>180</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>210</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_1.jpg</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Amazing Pics</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>DTF A5 set2</t>
-        </is>
-      </c>
-      <c r="U5" s="22" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Сердечки термозаплатка</t>
-        </is>
-      </c>
-      <c r="W5" s="30" t="inlineStr">
-        <is>
-          <t>Термонаклейка</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Термонаклейка Сердечки термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</t>
-        </is>
-      </c>
-      <c r="Z5" s="22" t="inlineStr">
-        <is>
-          <t>Россия</t>
-        </is>
-      </c>
-      <c r="AC5" s="22" t="inlineStr">
-        <is>
-          <t>Полимерный материал</t>
-        </is>
-      </c>
+      <c r="F5" s="30" t="n"/>
+      <c r="G5" s="22" t="n"/>
+      <c r="U5" s="22" t="n"/>
+      <c r="W5" s="30" t="n"/>
+      <c r="Z5" s="22" t="n"/>
+      <c r="AC5" s="22" t="n"/>
       <c r="AE5" s="22" t="n"/>
       <c r="AF5" s="22" t="n"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_hearts_black_color.jpg</t>
-        </is>
-      </c>
       <c r="AH5" s="22" t="n"/>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сердечки термозаплатка</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="23">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Термонаклейка Звезды Черные термозаплатка</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Термонаклейка для одежды: Звезды Черные термозаплатка</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>349</v>
-      </c>
-      <c r="E6" t="n">
-        <v>524</v>
-      </c>
-      <c r="F6" s="30" t="inlineStr">
-        <is>
-          <t>Не облагается</t>
-        </is>
-      </c>
-      <c r="G6" s="22" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v/>
-      </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-      <c r="J6" t="n">
-        <v>10</v>
-      </c>
-      <c r="K6" t="n">
-        <v>180</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>210</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_1.jpg</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Amazing Pics</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>DTF A5 set2</t>
-        </is>
-      </c>
-      <c r="U6" s="22" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Звезды Черные термозаплатка</t>
-        </is>
-      </c>
-      <c r="W6" s="30" t="inlineStr">
-        <is>
-          <t>Термонаклейка</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Термонаклейка Звезды Черные термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</t>
-        </is>
-      </c>
-      <c r="Z6" s="22" t="inlineStr">
-        <is>
-          <t>Россия</t>
-        </is>
-      </c>
-      <c r="AC6" s="22" t="inlineStr">
-        <is>
-          <t>Полимерный материал</t>
-        </is>
-      </c>
+      <c r="F6" s="30" t="n"/>
+      <c r="G6" s="22" t="n"/>
+      <c r="U6" s="22" t="n"/>
+      <c r="W6" s="30" t="n"/>
+      <c r="Z6" s="22" t="n"/>
+      <c r="AC6" s="22" t="n"/>
       <c r="AE6" s="22" t="n"/>
       <c r="AF6" s="22" t="n"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_black_color.jpg</t>
-        </is>
-      </c>
       <c r="AH6" s="22" t="n"/>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Звезды Черные термозаплатка</t>
-        </is>
-      </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="23">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Термонаклейка Звезды Белые термозаплатка</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Термонаклейка для одежды: Звезды Белые термозаплатка</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>349</v>
-      </c>
-      <c r="E7" t="n">
-        <v>524</v>
-      </c>
-      <c r="F7" s="30" t="inlineStr">
-        <is>
-          <t>Не облагается</t>
-        </is>
-      </c>
-      <c r="G7" s="22" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v/>
-      </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" t="n">
-        <v>180</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>210</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_1.jpg</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/instruction_A5.jpg;</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Amazing Pics</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>DTF A5 set2</t>
-        </is>
-      </c>
-      <c r="U7" s="22" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Звезды Белые термозаплатка</t>
-        </is>
-      </c>
-      <c r="W7" s="30" t="inlineStr">
-        <is>
-          <t>Термонаклейка</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Термонаклейка Звезды Белые термозаплатка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
-</t>
-        </is>
-      </c>
-      <c r="Z7" s="22" t="inlineStr">
-        <is>
-          <t>Россия</t>
-        </is>
-      </c>
-      <c r="AC7" s="22" t="inlineStr">
-        <is>
-          <t>Полимерный материал</t>
-        </is>
-      </c>
+      <c r="F7" s="30" t="n"/>
+      <c r="G7" s="22" t="n"/>
+      <c r="U7" s="22" t="n"/>
+      <c r="W7" s="30" t="n"/>
+      <c r="Z7" s="22" t="n"/>
+      <c r="AC7" s="22" t="n"/>
       <c r="AE7" s="22" t="n"/>
       <c r="AF7" s="22" t="n"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/patch_stars_white_color.jpg</t>
-        </is>
-      </c>
       <c r="AH7" s="22" t="n"/>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Звезды Белые термозаплатка</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="23">
       <c r="F8" s="30" t="n"/>
@@ -18629,7 +18338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -18689,7 +18398,7 @@
     <row r="4" ht="13.8" customHeight="1" s="23">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Формы термозаплатка</t>
+          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -18699,58 +18408,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Термонаклейка Сердечки термозаплатка</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>инструкция_dtf.mp4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Термонаклейка Звезды Черные термозаплатка</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>инструкция_dtf.mp4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Термонаклейка Звезды Белые термозаплатка</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>инструкция_dtf.mp4</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/Video_DTF.mp4</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</t>
         </is>
       </c>
     </row>
